--- a/public/shopify/Delivery_Institution_Details.xlsx
+++ b/public/shopify/Delivery_Institution_Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t xml:space="preserve">Delivery Institution</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t xml:space="preserve">A, B, C, D, E, F, Reynott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot 23 Gurugram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,10,11,12,BA, MA, BOD, BCOM, BTECH, MCOM, BBA, MBA, BSC, BVOC, Creative Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A, B, C, D, E, F, H&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarka</t>
   </si>
 </sst>
 </file>
@@ -164,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,8 +230,16 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,7 +249,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,6 +340,50 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -342,7 +415,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -390,10 +463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,12 +979,66 @@
       </c>
       <c r="G29" s="11"/>
     </row>
+    <row r="30" s="17" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E2:E17"/>
     <mergeCell ref="F2:F17"/>
     <mergeCell ref="E19:E27"/>
     <mergeCell ref="F19:F27"/>
+    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/shopify/Delivery_Institution_Details.xlsx
+++ b/public/shopify/Delivery_Institution_Details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">9,10,11,12,BA, MA, BOD, BCOM, BTECH, MCOM, BBA, MBA, BSC, BVOC, Creative Arts</t>
   </si>
   <si>
-    <t xml:space="preserve">A, B, C, D, E, F, H&amp;R</t>
+    <t xml:space="preserve"> H&amp;R</t>
   </si>
   <si>
     <t xml:space="preserve">Dwarka</t>
@@ -293,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,10 +380,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -465,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,7 +1004,6 @@
         <v>48</v>
       </c>
       <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">

--- a/public/shopify/Delivery_Institution_Details.xlsx
+++ b/public/shopify/Delivery_Institution_Details.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27230"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\workspace\apeejay\backend\public\shopify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bishwanath/htdocs/backend/public/shopify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4D1AC-16BF-45C6-8641-B9276728F77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>Delivery Institution</t>
   </si>
@@ -175,12 +180,18 @@
   </si>
   <si>
     <t>Plot 23 Gurgaon</t>
+  </si>
+  <si>
+    <t>Valedra</t>
+  </si>
+  <si>
+    <t>Plot 26 Gurgaon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -193,31 +204,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -254,12 +260,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +310,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,567 +698,587 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:26" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:26" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
